--- a/Sprints/sprint 7.xlsx
+++ b/Sprints/sprint 7.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705EB7B4-009B-4F39-8672-C6962E4A67C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B4F41-04FB-4942-AC47-58F06F1AC0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint 7" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>STATUS</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>Cristielen</t>
+  </si>
+  <si>
+    <t>HORAS TRABALHADAS</t>
+  </si>
+  <si>
+    <t>1 Horas e 30 Minutos</t>
+  </si>
+  <si>
+    <t>1 Hora 30 Minutos</t>
+  </si>
+  <si>
+    <t>2 Horas</t>
+  </si>
+  <si>
+    <t>2 Horas e 30 Minutos</t>
   </si>
 </sst>
 </file>
@@ -108,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,17 +131,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -215,13 +241,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1ADD5292-C626-48CD-86A7-94E105694DA9}" name="HORAS TRABALHADAS" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,23 +551,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="29.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,10 +578,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -565,10 +595,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -579,10 +612,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,10 +629,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,26 +646,32 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
